--- a/biology/Médecine/Frühjahrsmüdigkeit/Frühjahrsmüdigkeit.xlsx
+++ b/biology/Médecine/Frühjahrsmüdigkeit/Frühjahrsmüdigkeit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%BChjahrsm%C3%BCdigkeit</t>
+          <t>Frühjahrsmüdigkeit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Frühjahrsmüdigkeit (mot allemand signifiant fatigue de printemps) est un syndrome n'ayant pas de dénomination francophone : il est pour l'instant identifié en Europe et caractérisé par une fatigue annuelle, apparaissant au printemps et disparaissant en été. Plusieurs facteurs semblent expliquer cette périodicité : 
 l'équilibre hormonal, influencé par les saisons,
 l'alimentation, qui globalement évolue à l'arrivée du printemps,
-la durée du sommeil, liée à la lumière solaire[1].
+la durée du sommeil, liée à la lumière solaire.
 </t>
         </is>
       </c>
